--- a/PVB Stage Applicatie/App_Data/uploads/BegeleiderInvoegen.xlsx
+++ b/PVB Stage Applicatie/App_Data/uploads/BegeleiderInvoegen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>Voornaam</t>
   </si>
@@ -46,25 +46,133 @@
     <t>Bedrijf</t>
   </si>
   <si>
+    <t>Karel</t>
+  </si>
+  <si>
+    <t>Knettern</t>
+  </si>
+  <si>
+    <t>kknettern@hotmail.com</t>
+  </si>
+  <si>
+    <t>Grote straat</t>
+  </si>
+  <si>
+    <t>7564IU</t>
+  </si>
+  <si>
+    <t>Agelo</t>
+  </si>
+  <si>
+    <t>Beans</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Bouwer</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>bwb@builders.nl</t>
+  </si>
+  <si>
+    <t>Bestweg</t>
+  </si>
+  <si>
+    <t>8484PO</t>
+  </si>
+  <si>
+    <t>Hengelo</t>
+  </si>
+  <si>
+    <t>WebBuilders</t>
+  </si>
+  <si>
     <t>Yuri</t>
   </si>
   <si>
     <t>Lugt</t>
   </si>
   <si>
-    <t>ylugt@bizzdesign.nl</t>
-  </si>
-  <si>
-    <t>demmersweg</t>
-  </si>
-  <si>
-    <t>7575ER</t>
-  </si>
-  <si>
-    <t>Hengelo</t>
-  </si>
-  <si>
-    <t>BiZZdesign</t>
+    <t>De</t>
+  </si>
+  <si>
+    <t>ydlugt@chainwise.nl</t>
+  </si>
+  <si>
+    <t>Haaskbergerweg</t>
+  </si>
+  <si>
+    <t>2838ER</t>
+  </si>
+  <si>
+    <t>Haaksbergen</t>
+  </si>
+  <si>
+    <t>Chainwise</t>
+  </si>
+  <si>
+    <t>Kay</t>
+  </si>
+  <si>
+    <t>Bolder</t>
+  </si>
+  <si>
+    <t>kbolder@chainwise.nl</t>
+  </si>
+  <si>
+    <t>Hengelosestraat</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>3664OP</t>
+  </si>
+  <si>
+    <t>Jacques</t>
+  </si>
+  <si>
+    <t>Trekhaak</t>
+  </si>
+  <si>
+    <t>jtrekhaak@logic4.nl</t>
+  </si>
+  <si>
+    <t>Oldenzaalsvoetpad</t>
+  </si>
+  <si>
+    <t>7878IO</t>
+  </si>
+  <si>
+    <t>Oldenzaal</t>
+  </si>
+  <si>
+    <t>Logic4</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Langeslag</t>
+  </si>
+  <si>
+    <t>plangeslag@google.nl</t>
+  </si>
+  <si>
+    <t>Coolsingel</t>
+  </si>
+  <si>
+    <t>9994OO</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>Google</t>
   </si>
 </sst>
 </file>
@@ -129,11 +237,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -439,11 +550,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +564,7 @@
     <col min="3" max="3" width="14.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="3"/>
@@ -476,7 +587,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -505,8 +616,8 @@
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3">
-        <v>40</v>
+      <c r="F2" s="6">
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -518,8 +629,147 @@
         <v>16</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="6">
+        <v>23</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="6">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="6">
+        <v>9</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="6">
+        <v>76</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="toj7fFpJrgHuThrK6kKhJqWKKUicMYkQSR/y+jg4dwMcK8zec5iKgqBgfAzNzW6Bq318IWcI+OqByIeG8r3BKQ==" saltValue="z82qHDxbgAkfZNxyBUJmUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="a+E4upWR/JRI9zEA0jIky2cU6+OtGBsbvvdXtS4U+M54vHqyrvpXSroRF4HYz4+hxwCU7FIE7hfk5r74w4ua0A==" saltValue="QIMbTB4YKl6r3lpTvky4rA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="A2:J999" name="Range1"/>
   </protectedRanges>
